--- a/dataExcel/【M4A1 消音型（StatTrak™） _ 次时代 (略有磨损)】悠悠有品近1个月-总览.xlsx
+++ b/dataExcel/【M4A1 消音型（StatTrak™） _ 次时代 (略有磨损)】悠悠有品近1个月-总览.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I160"/>
+  <dimension ref="A1:I161"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,28 +431,28 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2023-09-16 14:28:57</v>
+        <v>2023-09-19 09:38:40</v>
       </c>
       <c r="B8">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C8">
-        <v>663.07</v>
+        <v>650</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E8">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="F8">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H8">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="I8">
         <v>5</v>
@@ -460,28 +460,28 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2023-09-16 19:38:55</v>
+        <v>2023-09-19 14:48:39</v>
       </c>
       <c r="B9">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C9">
-        <v>663.07</v>
+        <v>650</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E9">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="F9">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="G9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H9">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="I9">
         <v>4</v>
@@ -489,28 +489,28 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2023-09-17 00:48:54</v>
+        <v>2023-09-19 19:58:38</v>
       </c>
       <c r="B10">
-        <v>539.5</v>
+        <v>539</v>
       </c>
       <c r="C10">
-        <v>663.07</v>
+        <v>650</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="F10">
         <v>0.75</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H10">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="I10">
         <v>4</v>
@@ -518,28 +518,28 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2023-09-17 05:58:52</v>
+        <v>2023-09-20 01:08:36</v>
       </c>
       <c r="B11">
-        <v>539.5</v>
+        <v>539</v>
       </c>
       <c r="C11">
-        <v>612.95</v>
+        <v>650</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E11">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="F11">
         <v>0.75</v>
       </c>
       <c r="G11">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H11">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="I11">
         <v>4</v>
@@ -547,115 +547,115 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2023-09-17 11:08:52</v>
+        <v>2023-09-20 06:18:35</v>
       </c>
       <c r="B12">
-        <v>539.5</v>
+        <v>539</v>
       </c>
       <c r="C12">
-        <v>612.95</v>
+        <v>650</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E12">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="F12">
         <v>0.75</v>
       </c>
       <c r="G12">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H12">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2023-09-17 16:18:51</v>
+        <v>2023-09-20 11:28:33</v>
       </c>
       <c r="B13">
-        <v>539.5</v>
+        <v>539</v>
       </c>
       <c r="C13">
-        <v>612.95</v>
+        <v>650</v>
       </c>
       <c r="D13">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E13">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="F13">
         <v>0.75</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H13">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2023-09-17 21:28:50</v>
+        <v>2023-09-20 16:38:32</v>
       </c>
       <c r="B14">
-        <v>539.5</v>
+        <v>539</v>
       </c>
       <c r="C14">
-        <v>612.95</v>
+        <v>650</v>
       </c>
       <c r="D14">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E14">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="F14">
         <v>0.75</v>
       </c>
       <c r="G14">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H14">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2023-09-18 02:38:49</v>
+        <v>2023-09-20 21:48:30</v>
       </c>
       <c r="B15">
-        <v>510</v>
+        <v>539</v>
       </c>
       <c r="C15">
-        <v>679.45</v>
+        <v>650</v>
       </c>
       <c r="D15">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E15">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="F15">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="G15">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H15">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="I15">
         <v>4</v>
@@ -663,28 +663,28 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2023-09-18 07:48:48</v>
+        <v>2023-09-21 02:58:29</v>
       </c>
       <c r="B16">
-        <v>510</v>
+        <v>539</v>
       </c>
       <c r="C16">
-        <v>679.45</v>
+        <v>673.86</v>
       </c>
       <c r="D16">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E16">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="F16">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="G16">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H16">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="I16">
         <v>4</v>
@@ -692,28 +692,28 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2023-09-18 12:58:44</v>
+        <v>2023-09-21 08:08:28</v>
       </c>
       <c r="B17">
-        <v>510</v>
+        <v>539</v>
       </c>
       <c r="C17">
-        <v>679.45</v>
+        <v>673.86</v>
       </c>
       <c r="D17">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E17">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="F17">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="G17">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H17">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="I17">
         <v>4</v>
@@ -721,306 +721,306 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2023-09-18 18:08:43</v>
+        <v>2023-09-21 11:45:43</v>
       </c>
       <c r="B18">
-        <v>539.5</v>
+        <v>553</v>
       </c>
       <c r="C18">
-        <v>679.45</v>
+        <v>673.86</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E18">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="F18">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="G18">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H18">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2023-09-18 23:18:42</v>
+        <v>2023-09-21 15:25:02</v>
       </c>
       <c r="B19">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="C19">
-        <v>679.45</v>
+        <v>673.86</v>
       </c>
       <c r="D19">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="F19">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="G19">
         <v>10</v>
       </c>
       <c r="H19">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2023-09-19 04:28:40</v>
+        <v>2023-09-21 19:05:09</v>
       </c>
       <c r="B20">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="C20">
-        <v>650</v>
+        <v>673.86</v>
       </c>
       <c r="D20">
         <v>32</v>
       </c>
       <c r="E20">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="F20">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="G20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H20">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I20">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2023-09-19 09:38:40</v>
+        <v>2023-09-21 19:12:33</v>
       </c>
       <c r="B21">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="C21">
-        <v>650</v>
+        <v>673.86</v>
       </c>
       <c r="D21">
         <v>32</v>
       </c>
       <c r="E21">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="F21">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="G21">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H21">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="I21">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2023-09-19 14:48:39</v>
+        <v>2023-09-21 22:48:10</v>
       </c>
       <c r="B22">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="C22">
-        <v>650</v>
+        <v>673.86</v>
       </c>
       <c r="D22">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E22">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="F22">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="G22">
         <v>11</v>
       </c>
       <c r="H22">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="I22">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2023-09-19 19:58:38</v>
+        <v>2023-09-22 02:23:53</v>
       </c>
       <c r="B23">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="C23">
-        <v>650</v>
+        <v>652.53</v>
       </c>
       <c r="D23">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E23">
         <v>0.9</v>
       </c>
       <c r="F23">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="G23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H23">
         <v>499</v>
       </c>
       <c r="I23">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2023-09-20 01:08:36</v>
+        <v>2023-09-22 06:03:29</v>
       </c>
       <c r="B24">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="C24">
-        <v>650</v>
+        <v>652.53</v>
       </c>
       <c r="D24">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E24">
         <v>0.9</v>
       </c>
       <c r="F24">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="G24">
         <v>11</v>
       </c>
       <c r="H24">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="I24">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2023-09-20 06:18:35</v>
+        <v>2023-09-22 09:39:43</v>
       </c>
       <c r="B25">
-        <v>539</v>
+        <v>560</v>
       </c>
       <c r="C25">
-        <v>650</v>
+        <v>652.53</v>
       </c>
       <c r="D25">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E25">
         <v>0.9</v>
       </c>
       <c r="F25">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="G25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H25">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="I25">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2023-09-20 11:28:33</v>
+        <v>2023-09-22 13:15:35</v>
       </c>
       <c r="B26">
-        <v>539</v>
+        <v>560</v>
       </c>
       <c r="C26">
-        <v>650</v>
+        <v>652.53</v>
       </c>
       <c r="D26">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E26">
         <v>0.9</v>
       </c>
       <c r="F26">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="G26">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H26">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="I26">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2023-09-20 16:38:32</v>
+        <v>2023-09-22 16:56:21</v>
       </c>
       <c r="B27">
-        <v>539</v>
+        <v>560</v>
       </c>
       <c r="C27">
-        <v>650</v>
+        <v>652.53</v>
       </c>
       <c r="D27">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E27">
         <v>0.9</v>
       </c>
       <c r="F27">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="G27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H27">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2023-09-20 21:48:30</v>
+        <v>2023-09-22 20:33:36</v>
       </c>
       <c r="B28">
-        <v>539</v>
+        <v>560</v>
       </c>
       <c r="C28">
-        <v>650</v>
+        <v>652.53</v>
       </c>
       <c r="D28">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28">
         <v>0.9</v>
@@ -1029,27 +1029,27 @@
         <v>0.7</v>
       </c>
       <c r="G28">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H28">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2023-09-21 02:58:29</v>
+        <v>2023-09-23 00:16:19</v>
       </c>
       <c r="B29">
-        <v>539</v>
+        <v>560</v>
       </c>
       <c r="C29">
-        <v>673.86</v>
+        <v>652.53</v>
       </c>
       <c r="D29">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E29">
         <v>0.9</v>
@@ -1058,27 +1058,27 @@
         <v>0.7</v>
       </c>
       <c r="G29">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H29">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2023-09-21 08:08:28</v>
+        <v>2023-09-23 03:56:02</v>
       </c>
       <c r="B30">
-        <v>539</v>
+        <v>560</v>
       </c>
       <c r="C30">
-        <v>673.86</v>
+        <v>614.77</v>
       </c>
       <c r="D30">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E30">
         <v>0.9</v>
@@ -1087,27 +1087,27 @@
         <v>0.7</v>
       </c>
       <c r="G30">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H30">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2023-09-21 11:45:43</v>
+        <v>2023-09-23 07:35:38</v>
       </c>
       <c r="B31">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="C31">
-        <v>673.86</v>
+        <v>614.77</v>
       </c>
       <c r="D31">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E31">
         <v>0.9</v>
@@ -1116,27 +1116,27 @@
         <v>0.7</v>
       </c>
       <c r="G31">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H31">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="I31">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2023-09-21 15:25:02</v>
+        <v>2023-09-23 11:10:50</v>
       </c>
       <c r="B32">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="C32">
-        <v>673.86</v>
+        <v>614.77</v>
       </c>
       <c r="D32">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E32">
         <v>0.9</v>
@@ -1148,24 +1148,24 @@
         <v>10</v>
       </c>
       <c r="H32">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="I32">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2023-09-21 19:05:09</v>
+        <v>2023-09-23 14:49:16</v>
       </c>
       <c r="B33">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="C33">
-        <v>673.86</v>
+        <v>614.77</v>
       </c>
       <c r="D33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E33">
         <v>0.9</v>
@@ -1174,27 +1174,27 @@
         <v>0.7</v>
       </c>
       <c r="G33">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H33">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="I33">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2023-09-21 19:12:33</v>
+        <v>2023-09-23 18:28:02</v>
       </c>
       <c r="B34">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="C34">
-        <v>673.86</v>
+        <v>614.77</v>
       </c>
       <c r="D34">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E34">
         <v>0.9</v>
@@ -1203,27 +1203,27 @@
         <v>0.7</v>
       </c>
       <c r="G34">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H34">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="I34">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2023-09-21 22:48:10</v>
+        <v>2023-09-23 22:04:27</v>
       </c>
       <c r="B35">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="C35">
-        <v>673.86</v>
+        <v>614.77</v>
       </c>
       <c r="D35">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E35">
         <v>0.9</v>
@@ -1235,7 +1235,7 @@
         <v>11</v>
       </c>
       <c r="H35">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="I35">
         <v>7</v>
@@ -1243,16 +1243,16 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2023-09-22 02:23:53</v>
+        <v>2023-09-24 01:46:52</v>
       </c>
       <c r="B36">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="C36">
-        <v>652.53</v>
+        <v>614.77</v>
       </c>
       <c r="D36">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E36">
         <v>0.9</v>
@@ -1264,7 +1264,7 @@
         <v>11</v>
       </c>
       <c r="H36">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="I36">
         <v>7</v>
@@ -1272,16 +1272,16 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2023-09-22 06:03:29</v>
+        <v>2023-09-24 05:26:53</v>
       </c>
       <c r="B37">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="C37">
-        <v>652.53</v>
+        <v>673.14</v>
       </c>
       <c r="D37">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E37">
         <v>0.9</v>
@@ -1293,7 +1293,7 @@
         <v>11</v>
       </c>
       <c r="H37">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="I37">
         <v>7</v>
@@ -1301,16 +1301,16 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2023-09-22 09:39:43</v>
+        <v>2023-09-24 09:07:51</v>
       </c>
       <c r="B38">
         <v>560</v>
       </c>
       <c r="C38">
-        <v>652.53</v>
+        <v>673.14</v>
       </c>
       <c r="D38">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E38">
         <v>0.9</v>
@@ -1319,24 +1319,24 @@
         <v>0.7</v>
       </c>
       <c r="G38">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H38">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="I38">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2023-09-22 13:15:35</v>
+        <v>2023-09-24 12:43:48</v>
       </c>
       <c r="B39">
         <v>560</v>
       </c>
       <c r="C39">
-        <v>652.53</v>
+        <v>673.14</v>
       </c>
       <c r="D39">
         <v>33</v>
@@ -1348,10 +1348,10 @@
         <v>0.7</v>
       </c>
       <c r="G39">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H39">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="I39">
         <v>7</v>
@@ -1359,13 +1359,13 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2023-09-22 16:56:21</v>
+        <v>2023-09-24 16:19:01</v>
       </c>
       <c r="B40">
         <v>560</v>
       </c>
       <c r="C40">
-        <v>652.53</v>
+        <v>673.14</v>
       </c>
       <c r="D40">
         <v>33</v>
@@ -1377,10 +1377,10 @@
         <v>0.7</v>
       </c>
       <c r="G40">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H40">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="I40">
         <v>6</v>
@@ -1388,16 +1388,16 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2023-09-22 20:33:36</v>
+        <v>2023-09-24 19:58:21</v>
       </c>
       <c r="B41">
         <v>560</v>
       </c>
       <c r="C41">
-        <v>652.53</v>
+        <v>673.14</v>
       </c>
       <c r="D41">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E41">
         <v>0.9</v>
@@ -1406,27 +1406,27 @@
         <v>0.7</v>
       </c>
       <c r="G41">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H41">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="I41">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2023-09-23 00:16:19</v>
+        <v>2023-09-24 23:33:48</v>
       </c>
       <c r="B42">
         <v>560</v>
       </c>
       <c r="C42">
-        <v>652.53</v>
+        <v>673.14</v>
       </c>
       <c r="D42">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E42">
         <v>0.9</v>
@@ -1435,27 +1435,27 @@
         <v>0.7</v>
       </c>
       <c r="G42">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H42">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="I42">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2023-09-23 03:56:02</v>
+        <v>2023-09-25 03:11:32</v>
       </c>
       <c r="B43">
         <v>560</v>
       </c>
       <c r="C43">
-        <v>614.77</v>
+        <v>673.14</v>
       </c>
       <c r="D43">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E43">
         <v>0.9</v>
@@ -1464,24 +1464,24 @@
         <v>0.7</v>
       </c>
       <c r="G43">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H43">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="I43">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2023-09-23 07:35:38</v>
+        <v>2023-09-25 06:49:21</v>
       </c>
       <c r="B44">
         <v>560</v>
       </c>
       <c r="C44">
-        <v>614.77</v>
+        <v>673.14</v>
       </c>
       <c r="D44">
         <v>33</v>
@@ -1493,24 +1493,24 @@
         <v>0.7</v>
       </c>
       <c r="G44">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H44">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="I44">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2023-09-23 11:10:50</v>
+        <v>2023-09-25 10:28:47</v>
       </c>
       <c r="B45">
         <v>560</v>
       </c>
       <c r="C45">
-        <v>614.77</v>
+        <v>673.14</v>
       </c>
       <c r="D45">
         <v>33</v>
@@ -1519,85 +1519,85 @@
         <v>0.9</v>
       </c>
       <c r="F45">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="G45">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H45">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="I45">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2023-09-23 14:49:16</v>
+        <v>2023-09-25 14:08:55</v>
       </c>
       <c r="B46">
         <v>560</v>
       </c>
       <c r="C46">
-        <v>614.77</v>
+        <v>673.14</v>
       </c>
       <c r="D46">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E46">
         <v>0.9</v>
       </c>
       <c r="F46">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="G46">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H46">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="I46">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2023-09-23 18:28:02</v>
+        <v>2023-09-25 17:47:25</v>
       </c>
       <c r="B47">
         <v>560</v>
       </c>
       <c r="C47">
-        <v>614.77</v>
+        <v>673.14</v>
       </c>
       <c r="D47">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E47">
         <v>0.9</v>
       </c>
       <c r="F47">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="G47">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H47">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="I47">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2023-09-23 22:04:27</v>
+        <v>2023-09-25 21:28:12</v>
       </c>
       <c r="B48">
         <v>560</v>
       </c>
       <c r="C48">
-        <v>614.77</v>
+        <v>673.14</v>
       </c>
       <c r="D48">
         <v>32</v>
@@ -1606,158 +1606,158 @@
         <v>0.9</v>
       </c>
       <c r="F48">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="G48">
         <v>11</v>
       </c>
       <c r="H48">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I48">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2023-09-24 01:46:52</v>
+        <v>2023-09-26 01:05:27</v>
       </c>
       <c r="B49">
         <v>560</v>
       </c>
       <c r="C49">
-        <v>614.77</v>
+        <v>673.14</v>
       </c>
       <c r="D49">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E49">
         <v>0.9</v>
       </c>
       <c r="F49">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="G49">
         <v>11</v>
       </c>
       <c r="H49">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="I49">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2023-09-24 05:26:53</v>
+        <v>2023-09-26 04:41:59</v>
       </c>
       <c r="B50">
         <v>560</v>
       </c>
       <c r="C50">
-        <v>673.14</v>
+        <v>646.75</v>
       </c>
       <c r="D50">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E50">
         <v>0.9</v>
       </c>
       <c r="F50">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="G50">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H50">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="I50">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2023-09-24 09:07:51</v>
+        <v>2023-09-26 08:21:18</v>
       </c>
       <c r="B51">
         <v>560</v>
       </c>
       <c r="C51">
-        <v>673.14</v>
+        <v>646.75</v>
       </c>
       <c r="D51">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E51">
         <v>0.9</v>
       </c>
       <c r="F51">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="G51">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H51">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="I51">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2023-09-24 12:43:48</v>
+        <v>2023-09-26 08:26:57</v>
       </c>
       <c r="B52">
         <v>560</v>
       </c>
       <c r="C52">
-        <v>673.14</v>
+        <v>646.75</v>
       </c>
       <c r="D52">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E52">
         <v>0.9</v>
       </c>
       <c r="F52">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="G52">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H52">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="I52">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2023-09-24 16:19:01</v>
+        <v>2023-09-26 12:04:40</v>
       </c>
       <c r="B53">
         <v>560</v>
       </c>
       <c r="C53">
-        <v>673.14</v>
+        <v>646.75</v>
       </c>
       <c r="D53">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E53">
         <v>0.9</v>
       </c>
       <c r="F53">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="G53">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H53">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I53">
         <v>6</v>
@@ -1765,42 +1765,42 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2023-09-24 19:58:21</v>
+        <v>2023-09-26 15:41:06</v>
       </c>
       <c r="B54">
         <v>560</v>
       </c>
       <c r="C54">
-        <v>673.14</v>
+        <v>646.75</v>
       </c>
       <c r="D54">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E54">
         <v>0.9</v>
       </c>
       <c r="F54">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="G54">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H54">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="I54">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2023-09-24 23:33:48</v>
+        <v>2023-09-26 19:18:25</v>
       </c>
       <c r="B55">
         <v>560</v>
       </c>
       <c r="C55">
-        <v>673.14</v>
+        <v>646.75</v>
       </c>
       <c r="D55">
         <v>32</v>
@@ -1809,88 +1809,88 @@
         <v>0.9</v>
       </c>
       <c r="F55">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="G55">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H55">
         <v>508</v>
       </c>
       <c r="I55">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2023-09-25 03:11:32</v>
+        <v>2023-09-26 22:58:54</v>
       </c>
       <c r="B56">
         <v>560</v>
       </c>
       <c r="C56">
-        <v>673.14</v>
+        <v>646.75</v>
       </c>
       <c r="D56">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E56">
         <v>0.9</v>
       </c>
       <c r="F56">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="G56">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H56">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="I56">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2023-09-25 06:49:21</v>
+        <v>2023-09-27 02:39:57</v>
       </c>
       <c r="B57">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="C57">
-        <v>673.14</v>
+        <v>632.45</v>
       </c>
       <c r="D57">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E57">
         <v>0.9</v>
       </c>
       <c r="F57">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="G57">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H57">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="I57">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2023-09-25 10:28:47</v>
+        <v>2023-09-27 06:18:27</v>
       </c>
       <c r="B58">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="C58">
-        <v>673.14</v>
+        <v>632.45</v>
       </c>
       <c r="D58">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E58">
         <v>0.9</v>
@@ -1899,24 +1899,24 @@
         <v>0.66</v>
       </c>
       <c r="G58">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H58">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="I58">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2023-09-25 14:08:55</v>
+        <v>2023-09-27 09:57:04</v>
       </c>
       <c r="B59">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="C59">
-        <v>673.14</v>
+        <v>632.45</v>
       </c>
       <c r="D59">
         <v>32</v>
@@ -1928,27 +1928,27 @@
         <v>0.66</v>
       </c>
       <c r="G59">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H59">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="I59">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2023-09-25 17:47:25</v>
+        <v>2023-09-27 15:03:51</v>
       </c>
       <c r="B60">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="C60">
-        <v>673.14</v>
+        <v>632.45</v>
       </c>
       <c r="D60">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E60">
         <v>0.9</v>
@@ -1957,39 +1957,39 @@
         <v>0.66</v>
       </c>
       <c r="G60">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H60">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="I60">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>2023-09-25 21:28:12</v>
+        <v>2023-09-27 20:13:50</v>
       </c>
       <c r="B61">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="C61">
-        <v>673.14</v>
+        <v>632.45</v>
       </c>
       <c r="D61">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E61">
         <v>0.9</v>
       </c>
       <c r="F61">
-        <v>0.66</v>
+        <v>0.8</v>
       </c>
       <c r="G61">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H61">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="I61">
         <v>5</v>
@@ -1997,57 +1997,57 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>2023-09-26 01:05:27</v>
+        <v>2023-09-28 01:23:48</v>
       </c>
       <c r="B62">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="C62">
-        <v>673.14</v>
+        <v>632.45</v>
       </c>
       <c r="D62">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E62">
         <v>0.9</v>
       </c>
       <c r="F62">
-        <v>0.66</v>
+        <v>0.8</v>
       </c>
       <c r="G62">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H62">
         <v>504</v>
       </c>
       <c r="I62">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>2023-09-26 04:41:59</v>
+        <v>2023-09-28 06:33:49</v>
       </c>
       <c r="B63">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="C63">
-        <v>646.75</v>
+        <v>650.32</v>
       </c>
       <c r="D63">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E63">
         <v>0.9</v>
       </c>
       <c r="F63">
-        <v>0.66</v>
+        <v>0.8</v>
       </c>
       <c r="G63">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H63">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="I63">
         <v>5</v>
@@ -2055,306 +2055,306 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>2023-09-26 08:21:18</v>
+        <v>2023-09-28 11:43:56</v>
       </c>
       <c r="B64">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="C64">
-        <v>646.75</v>
+        <v>650.32</v>
       </c>
       <c r="D64">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E64">
         <v>0.9</v>
       </c>
       <c r="F64">
-        <v>0.66</v>
+        <v>0.8</v>
       </c>
       <c r="G64">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H64">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I64">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>2023-09-26 08:26:57</v>
+        <v>2023-09-28 16:54:09</v>
       </c>
       <c r="B65">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="C65">
-        <v>646.75</v>
+        <v>650.32</v>
       </c>
       <c r="D65">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E65">
         <v>0.9</v>
       </c>
       <c r="F65">
-        <v>0.66</v>
+        <v>0.8</v>
       </c>
       <c r="G65">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H65">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="I65">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2023-09-26 12:04:40</v>
+        <v>2023-09-28 22:04:03</v>
       </c>
       <c r="B66">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="C66">
-        <v>646.75</v>
+        <v>650.32</v>
       </c>
       <c r="D66">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E66">
         <v>0.9</v>
       </c>
       <c r="F66">
-        <v>0.66</v>
+        <v>0.8</v>
       </c>
       <c r="G66">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H66">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="I66">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>2023-09-26 15:41:06</v>
+        <v>2023-09-29 03:14:02</v>
       </c>
       <c r="B67">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="C67">
-        <v>646.75</v>
+        <v>647.91</v>
       </c>
       <c r="D67">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E67">
         <v>0.9</v>
       </c>
       <c r="F67">
-        <v>0.66</v>
+        <v>0.8</v>
       </c>
       <c r="G67">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H67">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="I67">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>2023-09-26 19:18:25</v>
+        <v>2023-09-29 08:24:31</v>
       </c>
       <c r="B68">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="C68">
-        <v>646.75</v>
+        <v>647.91</v>
       </c>
       <c r="D68">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E68">
         <v>0.9</v>
       </c>
       <c r="F68">
-        <v>0.66</v>
+        <v>0.8</v>
       </c>
       <c r="G68">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H68">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="I68">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>2023-09-26 22:58:54</v>
+        <v>2023-09-29 13:34:10</v>
       </c>
       <c r="B69">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="C69">
-        <v>646.75</v>
+        <v>647.91</v>
       </c>
       <c r="D69">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E69">
         <v>0.9</v>
       </c>
       <c r="F69">
-        <v>0.66</v>
+        <v>0.8</v>
       </c>
       <c r="G69">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H69">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="I69">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>2023-09-27 02:39:57</v>
+        <v>2023-09-29 18:44:08</v>
       </c>
       <c r="B70">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="C70">
-        <v>632.45</v>
+        <v>647.91</v>
       </c>
       <c r="D70">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E70">
         <v>0.9</v>
       </c>
       <c r="F70">
-        <v>0.66</v>
+        <v>0.8</v>
       </c>
       <c r="G70">
         <v>9</v>
       </c>
       <c r="H70">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="I70">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>2023-09-27 06:18:27</v>
+        <v>2023-09-29 23:54:08</v>
       </c>
       <c r="B71">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="C71">
-        <v>632.45</v>
+        <v>647.91</v>
       </c>
       <c r="D71">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E71">
         <v>0.9</v>
       </c>
       <c r="F71">
-        <v>0.66</v>
+        <v>0.8</v>
       </c>
       <c r="G71">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H71">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="I71">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>2023-09-27 09:57:04</v>
+        <v>2023-09-30 04:58:00</v>
       </c>
       <c r="B72">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="C72">
-        <v>632.45</v>
+        <v>602.75</v>
       </c>
       <c r="D72">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E72">
         <v>0.9</v>
       </c>
       <c r="F72">
-        <v>0.66</v>
+        <v>0.8</v>
       </c>
       <c r="G72">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H72">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="I72">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>2023-09-27 15:03:51</v>
+        <v>2023-09-30 10:08:00</v>
       </c>
       <c r="B73">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="C73">
-        <v>632.45</v>
+        <v>602.75</v>
       </c>
       <c r="D73">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E73">
         <v>0.9</v>
       </c>
       <c r="F73">
-        <v>0.66</v>
+        <v>0.8</v>
       </c>
       <c r="G73">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H73">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="I73">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>2023-09-27 20:13:50</v>
+        <v>2023-09-30 15:17:59</v>
       </c>
       <c r="B74">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="C74">
-        <v>632.45</v>
+        <v>602.75</v>
       </c>
       <c r="D74">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E74">
         <v>0.9</v>
@@ -2366,24 +2366,24 @@
         <v>8</v>
       </c>
       <c r="H74">
-        <v>509</v>
+        <v>450</v>
       </c>
       <c r="I74">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>2023-09-28 01:23:48</v>
+        <v>2023-09-30 20:27:58</v>
       </c>
       <c r="B75">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="C75">
-        <v>632.45</v>
+        <v>602.75</v>
       </c>
       <c r="D75">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E75">
         <v>0.9</v>
@@ -2395,500 +2395,500 @@
         <v>8</v>
       </c>
       <c r="H75">
-        <v>504</v>
+        <v>451</v>
       </c>
       <c r="I75">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>2023-09-28 06:33:49</v>
+        <v>2023-10-01 01:37:58</v>
       </c>
       <c r="B76">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="C76">
-        <v>650.32</v>
+        <v>602.75</v>
       </c>
       <c r="D76">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E76">
         <v>0.9</v>
       </c>
       <c r="F76">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="G76">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H76">
-        <v>506</v>
+        <v>451</v>
       </c>
       <c r="I76">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>2023-09-28 11:43:56</v>
+        <v>2023-10-01 06:47:58</v>
       </c>
       <c r="B77">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="C77">
-        <v>650.32</v>
+        <v>619.12</v>
       </c>
       <c r="D77">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E77">
         <v>0.9</v>
       </c>
       <c r="F77">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="G77">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H77">
-        <v>505</v>
+        <v>451</v>
       </c>
       <c r="I77">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>2023-09-28 16:54:09</v>
+        <v>2023-10-01 11:57:58</v>
       </c>
       <c r="B78">
-        <v>540</v>
+        <v>495</v>
       </c>
       <c r="C78">
-        <v>650.32</v>
+        <v>619.12</v>
       </c>
       <c r="D78">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E78">
         <v>0.9</v>
       </c>
       <c r="F78">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="G78">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H78">
-        <v>496</v>
+        <v>451</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>2023-09-28 22:04:03</v>
+        <v>2023-10-01 17:08:12</v>
       </c>
       <c r="B79">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="C79">
-        <v>650.32</v>
+        <v>619.12</v>
       </c>
       <c r="D79">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E79">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F79">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="G79">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H79">
-        <v>495</v>
+        <v>453</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>2023-09-29 03:14:02</v>
+        <v>2023-10-01 22:18:52</v>
       </c>
       <c r="B80">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="C80">
-        <v>647.91</v>
+        <v>619.12</v>
       </c>
       <c r="D80">
         <v>31</v>
       </c>
       <c r="E80">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F80">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="G80">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H80">
-        <v>496</v>
+        <v>454</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>2023-09-29 08:24:31</v>
+        <v>2023-10-02 03:28:12</v>
       </c>
       <c r="B81">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="C81">
-        <v>647.91</v>
+        <v>687.96</v>
       </c>
       <c r="D81">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E81">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F81">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="G81">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H81">
-        <v>495</v>
+        <v>458</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>2023-09-29 13:34:10</v>
+        <v>2023-10-02 08:38:17</v>
       </c>
       <c r="B82">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="C82">
-        <v>647.91</v>
+        <v>687.96</v>
       </c>
       <c r="D82">
         <v>32</v>
       </c>
       <c r="E82">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F82">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="G82">
         <v>8</v>
       </c>
       <c r="H82">
-        <v>498</v>
+        <v>458</v>
       </c>
       <c r="I82">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>2023-09-29 18:44:08</v>
+        <v>2023-10-02 13:51:07</v>
       </c>
       <c r="B83">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="C83">
-        <v>647.91</v>
+        <v>687.96</v>
       </c>
       <c r="D83">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E83">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F83">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="G83">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H83">
-        <v>500</v>
+        <v>462</v>
       </c>
       <c r="I83">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>2023-09-29 23:54:08</v>
+        <v>2023-10-02 18:58:24</v>
       </c>
       <c r="B84">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="C84">
-        <v>647.91</v>
+        <v>687.96</v>
       </c>
       <c r="D84">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E84">
         <v>0.9</v>
       </c>
       <c r="F84">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
       <c r="G84">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H84">
-        <v>501</v>
+        <v>468</v>
       </c>
       <c r="I84">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>2023-09-30 04:58:00</v>
+        <v>2023-10-03 00:08:37</v>
       </c>
       <c r="B85">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="C85">
-        <v>602.75</v>
+        <v>687.96</v>
       </c>
       <c r="D85">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E85">
         <v>0.9</v>
       </c>
       <c r="F85">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
       <c r="G85">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H85">
-        <v>501</v>
+        <v>469</v>
       </c>
       <c r="I85">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>2023-09-30 10:08:00</v>
+        <v>2023-10-03 05:18:30</v>
       </c>
       <c r="B86">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="C86">
-        <v>602.75</v>
+        <v>853.71</v>
       </c>
       <c r="D86">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E86">
         <v>0.9</v>
       </c>
       <c r="F86">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
       <c r="G86">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H86">
-        <v>501</v>
+        <v>472</v>
       </c>
       <c r="I86">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>2023-09-30 15:17:59</v>
+        <v>2023-10-03 10:28:28</v>
       </c>
       <c r="B87">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="C87">
-        <v>602.75</v>
+        <v>853.71</v>
       </c>
       <c r="D87">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E87">
         <v>0.9</v>
       </c>
       <c r="F87">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
       <c r="G87">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H87">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>2023-09-30 20:27:58</v>
+        <v>2023-10-03 15:32:53</v>
       </c>
       <c r="B88">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="C88">
-        <v>602.75</v>
+        <v>853.71</v>
       </c>
       <c r="D88">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E88">
         <v>0.9</v>
       </c>
       <c r="F88">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
       <c r="G88">
         <v>8</v>
       </c>
       <c r="H88">
-        <v>451</v>
+        <v>480</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>2023-10-01 01:37:58</v>
+        <v>2023-10-03 20:42:58</v>
       </c>
       <c r="B89">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="C89">
-        <v>602.75</v>
+        <v>853.71</v>
       </c>
       <c r="D89">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E89">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F89">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="G89">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H89">
-        <v>451</v>
+        <v>481</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>2023-10-01 06:47:58</v>
+        <v>2023-10-04 01:52:58</v>
       </c>
       <c r="B90">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="C90">
-        <v>619.12</v>
+        <v>853.71</v>
       </c>
       <c r="D90">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E90">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F90">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="G90">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H90">
-        <v>451</v>
+        <v>480</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>2023-10-01 11:57:58</v>
+        <v>2023-10-04 07:02:58</v>
       </c>
       <c r="B91">
-        <v>495</v>
+        <v>520</v>
       </c>
       <c r="C91">
-        <v>619.12</v>
+        <v>807.82</v>
       </c>
       <c r="D91">
         <v>32</v>
       </c>
       <c r="E91">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F91">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="G91">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H91">
-        <v>451</v>
+        <v>481</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>2023-10-01 17:08:12</v>
+        <v>2023-10-04 12:12:56</v>
       </c>
       <c r="B92">
         <v>520</v>
       </c>
       <c r="C92">
-        <v>619.12</v>
+        <v>807.82</v>
       </c>
       <c r="D92">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E92">
         <v>0.95</v>
       </c>
       <c r="F92">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="G92">
         <v>8</v>
       </c>
       <c r="H92">
-        <v>453</v>
+        <v>480</v>
       </c>
       <c r="I92">
         <v>3</v>
@@ -2896,28 +2896,28 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>2023-10-01 22:18:52</v>
+        <v>2023-10-04 17:22:55</v>
       </c>
       <c r="B93">
         <v>520</v>
       </c>
       <c r="C93">
-        <v>619.12</v>
+        <v>807.82</v>
       </c>
       <c r="D93">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E93">
         <v>0.95</v>
       </c>
       <c r="F93">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="G93">
         <v>8</v>
       </c>
       <c r="H93">
-        <v>454</v>
+        <v>480</v>
       </c>
       <c r="I93">
         <v>3</v>
@@ -2925,13 +2925,13 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>2023-10-02 03:28:12</v>
+        <v>2023-10-04 22:33:07</v>
       </c>
       <c r="B94">
         <v>520</v>
       </c>
       <c r="C94">
-        <v>687.96</v>
+        <v>807.82</v>
       </c>
       <c r="D94">
         <v>32</v>
@@ -2940,100 +2940,100 @@
         <v>0.95</v>
       </c>
       <c r="F94">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="G94">
         <v>8</v>
       </c>
       <c r="H94">
-        <v>458</v>
+        <v>480</v>
       </c>
       <c r="I94">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>2023-10-02 08:38:17</v>
+        <v>2023-10-05 03:43:03</v>
       </c>
       <c r="B95">
         <v>520</v>
       </c>
       <c r="C95">
-        <v>687.96</v>
+        <v>750.55</v>
       </c>
       <c r="D95">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E95">
         <v>0.95</v>
       </c>
       <c r="F95">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="G95">
         <v>8</v>
       </c>
       <c r="H95">
-        <v>458</v>
+        <v>480</v>
       </c>
       <c r="I95">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>2023-10-02 13:51:07</v>
+        <v>2023-10-05 08:53:02</v>
       </c>
       <c r="B96">
         <v>520</v>
       </c>
       <c r="C96">
-        <v>687.96</v>
+        <v>750.55</v>
       </c>
       <c r="D96">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E96">
         <v>0.95</v>
       </c>
       <c r="F96">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="G96">
         <v>8</v>
       </c>
       <c r="H96">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="I96">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>2023-10-02 18:58:24</v>
+        <v>2023-10-05 14:03:17</v>
       </c>
       <c r="B97">
         <v>520</v>
       </c>
       <c r="C97">
-        <v>687.96</v>
+        <v>750.55</v>
       </c>
       <c r="D97">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E97">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F97">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
       <c r="G97">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H97">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="I97">
         <v>5</v>
@@ -3041,260 +3041,260 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>2023-10-03 00:08:37</v>
+        <v>2023-10-05 19:13:10</v>
       </c>
       <c r="B98">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="C98">
-        <v>687.96</v>
+        <v>750.55</v>
       </c>
       <c r="D98">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E98">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F98">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
       <c r="G98">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H98">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="I98">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>2023-10-03 05:18:30</v>
+        <v>2023-10-06 00:23:10</v>
       </c>
       <c r="B99">
         <v>520</v>
       </c>
       <c r="C99">
-        <v>853.71</v>
+        <v>750.55</v>
       </c>
       <c r="D99">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E99">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="F99">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
       <c r="G99">
         <v>9</v>
       </c>
       <c r="H99">
-        <v>472</v>
+        <v>493</v>
       </c>
       <c r="I99">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>2023-10-03 10:28:28</v>
+        <v>2023-10-06 05:33:32</v>
       </c>
       <c r="B100">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="C100">
-        <v>853.71</v>
+        <v>702</v>
       </c>
       <c r="D100">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E100">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="F100">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
       <c r="G100">
         <v>9</v>
       </c>
       <c r="H100">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="I100">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>2023-10-03 15:32:53</v>
+        <v>2023-10-06 10:42:53</v>
       </c>
       <c r="B101">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="C101">
-        <v>853.71</v>
+        <v>702</v>
       </c>
       <c r="D101">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E101">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="F101">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
       <c r="G101">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H101">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="I101">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>2023-10-03 20:42:58</v>
+        <v>2023-10-06 15:52:53</v>
       </c>
       <c r="B102">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="C102">
-        <v>853.71</v>
+        <v>702</v>
       </c>
       <c r="D102">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E102">
-        <v>0.95</v>
+        <v>0.6</v>
       </c>
       <c r="F102">
         <v>0.8</v>
       </c>
       <c r="G102">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H102">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="I102">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>2023-10-04 01:52:58</v>
+        <v>2023-10-06 21:03:07</v>
       </c>
       <c r="B103">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="C103">
-        <v>853.71</v>
+        <v>702</v>
       </c>
       <c r="D103">
         <v>32</v>
       </c>
       <c r="E103">
-        <v>0.95</v>
+        <v>0.6</v>
       </c>
       <c r="F103">
         <v>0.8</v>
       </c>
       <c r="G103">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H103">
-        <v>480</v>
+        <v>503</v>
       </c>
       <c r="I103">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>2023-10-04 07:02:58</v>
+        <v>2023-10-07 02:13:01</v>
       </c>
       <c r="B104">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="C104">
-        <v>807.82</v>
+        <v>771.49</v>
       </c>
       <c r="D104">
         <v>32</v>
       </c>
       <c r="E104">
-        <v>0.95</v>
+        <v>0.6</v>
       </c>
       <c r="F104">
         <v>0.8</v>
       </c>
       <c r="G104">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H104">
-        <v>481</v>
+        <v>504</v>
       </c>
       <c r="I104">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>2023-10-04 12:12:56</v>
+        <v>2023-10-07 07:23:01</v>
       </c>
       <c r="B105">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="C105">
-        <v>807.82</v>
+        <v>771.49</v>
       </c>
       <c r="D105">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E105">
-        <v>0.95</v>
+        <v>0.6</v>
       </c>
       <c r="F105">
         <v>0.8</v>
       </c>
       <c r="G105">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H105">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="I105">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>2023-10-04 17:22:55</v>
+        <v>2023-10-07 12:33:01</v>
       </c>
       <c r="B106">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="C106">
-        <v>807.82</v>
+        <v>771.49</v>
       </c>
       <c r="D106">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E106">
-        <v>0.95</v>
+        <v>0.6</v>
       </c>
       <c r="F106">
         <v>0.8</v>
       </c>
       <c r="G106">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H106">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="I106">
         <v>3</v>
@@ -3302,115 +3302,115 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>2023-10-04 22:33:07</v>
+        <v>2023-10-07 17:43:01</v>
       </c>
       <c r="B107">
-        <v>520</v>
+        <v>545</v>
       </c>
       <c r="C107">
-        <v>807.82</v>
+        <v>771.49</v>
       </c>
       <c r="D107">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E107">
-        <v>0.95</v>
+        <v>0.6</v>
       </c>
       <c r="F107">
         <v>0.8</v>
       </c>
       <c r="G107">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H107">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="I107">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>2023-10-05 03:43:03</v>
+        <v>2023-10-07 22:53:01</v>
       </c>
       <c r="B108">
-        <v>520</v>
+        <v>545</v>
       </c>
       <c r="C108">
-        <v>750.55</v>
+        <v>771.49</v>
       </c>
       <c r="D108">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E108">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="F108">
         <v>0.8</v>
       </c>
       <c r="G108">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H108">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="I108">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>2023-10-05 08:53:02</v>
+        <v>2023-10-08 04:03:07</v>
       </c>
       <c r="B109">
-        <v>520</v>
+        <v>545</v>
       </c>
       <c r="C109">
-        <v>750.55</v>
+        <v>771.49</v>
       </c>
       <c r="D109">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E109">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="F109">
         <v>0.8</v>
       </c>
       <c r="G109">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H109">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="I109">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>2023-10-05 14:03:17</v>
+        <v>2023-10-08 09:14:39</v>
       </c>
       <c r="B110">
-        <v>520</v>
+        <v>545</v>
       </c>
       <c r="C110">
-        <v>750.55</v>
+        <v>771.49</v>
       </c>
       <c r="D110">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E110">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="F110">
         <v>0.8</v>
       </c>
       <c r="G110">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H110">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="I110">
         <v>5</v>
@@ -3418,57 +3418,57 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>2023-10-05 19:13:10</v>
+        <v>2023-10-08 14:23:15</v>
       </c>
       <c r="B111">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="C111">
-        <v>750.55</v>
+        <v>771.49</v>
       </c>
       <c r="D111">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E111">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="F111">
         <v>0.8</v>
       </c>
       <c r="G111">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H111">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="I111">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>2023-10-06 00:23:10</v>
+        <v>2023-10-08 19:33:13</v>
       </c>
       <c r="B112">
-        <v>520</v>
+        <v>545</v>
       </c>
       <c r="C112">
-        <v>750.55</v>
+        <v>771.49</v>
       </c>
       <c r="D112">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E112">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="F112">
         <v>0.8</v>
       </c>
       <c r="G112">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H112">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="I112">
         <v>5</v>
@@ -3476,28 +3476,28 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>2023-10-06 05:33:32</v>
+        <v>2023-10-09 00:44:30</v>
       </c>
       <c r="B113">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="C113">
-        <v>702</v>
+        <v>771.49</v>
       </c>
       <c r="D113">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E113">
-        <v>0.6</v>
+        <v>0.89</v>
       </c>
       <c r="F113">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
       <c r="G113">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H113">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="I113">
         <v>4</v>
@@ -3505,231 +3505,231 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>2023-10-06 10:42:53</v>
+        <v>2023-10-09 05:53:16</v>
       </c>
       <c r="B114">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="C114">
-        <v>702</v>
+        <v>782.6</v>
       </c>
       <c r="D114">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E114">
-        <v>0.6</v>
+        <v>0.89</v>
       </c>
       <c r="F114">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
       <c r="G114">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H114">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="I114">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>2023-10-06 15:52:53</v>
+        <v>2023-10-09 11:03:16</v>
       </c>
       <c r="B115">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="C115">
-        <v>702</v>
+        <v>782.6</v>
       </c>
       <c r="D115">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E115">
-        <v>0.6</v>
+        <v>0.71</v>
       </c>
       <c r="F115">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
       <c r="G115">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H115">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>2023-10-06 21:03:07</v>
+        <v>2023-10-09 16:13:16</v>
       </c>
       <c r="B116">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="C116">
-        <v>702</v>
+        <v>782.6</v>
       </c>
       <c r="D116">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E116">
-        <v>0.6</v>
+        <v>0.71</v>
       </c>
       <c r="F116">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
       <c r="G116">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H116">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="I116">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>2023-10-07 02:13:01</v>
+        <v>2023-10-09 21:23:21</v>
       </c>
       <c r="B117">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="C117">
-        <v>771.49</v>
+        <v>782.6</v>
       </c>
       <c r="D117">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E117">
-        <v>0.6</v>
+        <v>0.71</v>
       </c>
       <c r="F117">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
       <c r="G117">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H117">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="I117">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>2023-10-07 07:23:01</v>
+        <v>2023-10-10 02:33:20</v>
       </c>
       <c r="B118">
-        <v>540</v>
+        <v>544.5</v>
       </c>
       <c r="C118">
-        <v>771.49</v>
+        <v>814.12</v>
       </c>
       <c r="D118">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E118">
-        <v>0.6</v>
+        <v>0.71</v>
       </c>
       <c r="F118">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
       <c r="G118">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H118">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="I118">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>2023-10-07 12:33:01</v>
+        <v>2023-10-10 07:43:20</v>
       </c>
       <c r="B119">
-        <v>540</v>
+        <v>544.5</v>
       </c>
       <c r="C119">
-        <v>771.49</v>
+        <v>814.12</v>
       </c>
       <c r="D119">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E119">
-        <v>0.6</v>
+        <v>0.71</v>
       </c>
       <c r="F119">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
       <c r="G119">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H119">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="I119">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>2023-10-07 17:43:01</v>
+        <v>2023-10-10 12:53:20</v>
       </c>
       <c r="B120">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C120">
-        <v>771.49</v>
+        <v>814.12</v>
       </c>
       <c r="D120">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E120">
-        <v>0.6</v>
+        <v>0.71</v>
       </c>
       <c r="F120">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
       <c r="G120">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H120">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="I120">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>2023-10-07 22:53:01</v>
+        <v>2023-10-10 18:03:20</v>
       </c>
       <c r="B121">
-        <v>545</v>
+        <v>543.5</v>
       </c>
       <c r="C121">
-        <v>771.49</v>
+        <v>814.12</v>
       </c>
       <c r="D121">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E121">
-        <v>0.9</v>
+        <v>0.71</v>
       </c>
       <c r="F121">
-        <v>0.8</v>
+        <v>0.56</v>
       </c>
       <c r="G121">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H121">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="I121">
         <v>4</v>
@@ -3737,283 +3737,283 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>2023-10-08 04:03:07</v>
+        <v>2023-10-10 23:13:20</v>
       </c>
       <c r="B122">
-        <v>545</v>
+        <v>543.5</v>
       </c>
       <c r="C122">
-        <v>771.49</v>
+        <v>814.12</v>
       </c>
       <c r="D122">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E122">
-        <v>0.9</v>
+        <v>0.68</v>
       </c>
       <c r="F122">
-        <v>0.8</v>
+        <v>0.54</v>
       </c>
       <c r="G122">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H122">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="I122">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>2023-10-08 09:14:39</v>
+        <v>2023-10-11 04:24:00</v>
       </c>
       <c r="B123">
-        <v>545</v>
+        <v>543.5</v>
       </c>
       <c r="C123">
-        <v>771.49</v>
+        <v>810.03</v>
       </c>
       <c r="D123">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E123">
-        <v>0.9</v>
+        <v>0.68</v>
       </c>
       <c r="F123">
-        <v>0.8</v>
+        <v>0.54</v>
       </c>
       <c r="G123">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H123">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="I123">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>2023-10-08 14:23:15</v>
+        <v>2023-10-11 09:33:27</v>
       </c>
       <c r="B124">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C124">
-        <v>771.49</v>
+        <v>810.03</v>
       </c>
       <c r="D124">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E124">
-        <v>0.9</v>
+        <v>0.68</v>
       </c>
       <c r="F124">
-        <v>0.8</v>
+        <v>0.54</v>
       </c>
       <c r="G124">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H124">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="I124">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>2023-10-08 19:33:13</v>
+        <v>2023-10-11 14:37:08</v>
       </c>
       <c r="B125">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C125">
-        <v>771.49</v>
+        <v>810.03</v>
       </c>
       <c r="D125">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E125">
-        <v>0.9</v>
+        <v>0.68</v>
       </c>
       <c r="F125">
-        <v>0.8</v>
+        <v>0.54</v>
       </c>
       <c r="G125">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H125">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="I125">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>2023-10-09 00:44:30</v>
+        <v>2023-10-11 19:47:08</v>
       </c>
       <c r="B126">
-        <v>545</v>
+        <v>539.5</v>
       </c>
       <c r="C126">
-        <v>771.49</v>
+        <v>810.03</v>
       </c>
       <c r="D126">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E126">
-        <v>0.89</v>
+        <v>0.68</v>
       </c>
       <c r="F126">
-        <v>0.72</v>
+        <v>0.54</v>
       </c>
       <c r="G126">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H126">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="I126">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>2023-10-09 05:53:16</v>
+        <v>2023-10-12 00:57:08</v>
       </c>
       <c r="B127">
-        <v>545</v>
+        <v>539.5</v>
       </c>
       <c r="C127">
-        <v>782.6</v>
+        <v>810.03</v>
       </c>
       <c r="D127">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E127">
-        <v>0.89</v>
+        <v>0.68</v>
       </c>
       <c r="F127">
-        <v>0.72</v>
+        <v>0.54</v>
       </c>
       <c r="G127">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H127">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="I127">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>2023-10-09 11:03:16</v>
+        <v>2023-10-12 06:07:32</v>
       </c>
       <c r="B128">
-        <v>545</v>
+        <v>539.5</v>
       </c>
       <c r="C128">
-        <v>782.6</v>
+        <v>749.77</v>
       </c>
       <c r="D128">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E128">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="F128">
-        <v>0.72</v>
+        <v>0.54</v>
       </c>
       <c r="G128">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H128">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="I128">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>2023-10-09 16:13:16</v>
+        <v>2023-10-12 11:17:01</v>
       </c>
       <c r="B129">
-        <v>545</v>
+        <v>539.5</v>
       </c>
       <c r="C129">
-        <v>782.6</v>
+        <v>749.77</v>
       </c>
       <c r="D129">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E129">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="F129">
-        <v>0.72</v>
+        <v>0.54</v>
       </c>
       <c r="G129">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H129">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I129">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>2023-10-09 21:23:21</v>
+        <v>2023-10-12 16:27:01</v>
       </c>
       <c r="B130">
-        <v>545</v>
+        <v>539.5</v>
       </c>
       <c r="C130">
-        <v>782.6</v>
+        <v>749.77</v>
       </c>
       <c r="D130">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E130">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="F130">
-        <v>0.72</v>
+        <v>0.54</v>
       </c>
       <c r="G130">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H130">
         <v>510</v>
       </c>
       <c r="I130">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>2023-10-10 02:33:20</v>
+        <v>2023-10-12 21:37:00</v>
       </c>
       <c r="B131">
-        <v>544.5</v>
+        <v>539.5</v>
       </c>
       <c r="C131">
-        <v>814.12</v>
+        <v>749.77</v>
       </c>
       <c r="D131">
         <v>36</v>
       </c>
       <c r="E131">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="F131">
-        <v>0.72</v>
+        <v>0.6</v>
       </c>
       <c r="G131">
         <v>12</v>
@@ -4022,30 +4022,30 @@
         <v>510</v>
       </c>
       <c r="I131">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>2023-10-10 07:43:20</v>
+        <v>2023-10-13 02:47:00</v>
       </c>
       <c r="B132">
-        <v>544.5</v>
+        <v>539.5</v>
       </c>
       <c r="C132">
-        <v>814.12</v>
+        <v>821.47</v>
       </c>
       <c r="D132">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E132">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="F132">
-        <v>0.72</v>
+        <v>0.59</v>
       </c>
       <c r="G132">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H132">
         <v>510</v>
@@ -4056,25 +4056,25 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>2023-10-10 12:53:20</v>
+        <v>2023-10-13 07:57:00</v>
       </c>
       <c r="B133">
-        <v>544</v>
+        <v>539.5</v>
       </c>
       <c r="C133">
-        <v>814.12</v>
+        <v>821.47</v>
       </c>
       <c r="D133">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E133">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="F133">
-        <v>0.72</v>
+        <v>0.59</v>
       </c>
       <c r="G133">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H133">
         <v>510</v>
@@ -4085,54 +4085,54 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>2023-10-10 18:03:20</v>
+        <v>2023-10-13 13:06:58</v>
       </c>
       <c r="B134">
-        <v>543.5</v>
+        <v>539.5</v>
       </c>
       <c r="C134">
-        <v>814.12</v>
+        <v>821.47</v>
       </c>
       <c r="D134">
         <v>38</v>
       </c>
       <c r="E134">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="F134">
-        <v>0.56</v>
+        <v>0.59</v>
       </c>
       <c r="G134">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H134">
         <v>510</v>
       </c>
       <c r="I134">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>2023-10-10 23:13:20</v>
+        <v>2023-10-13 18:16:53</v>
       </c>
       <c r="B135">
-        <v>543.5</v>
+        <v>539.5</v>
       </c>
       <c r="C135">
-        <v>814.12</v>
+        <v>821.47</v>
       </c>
       <c r="D135">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E135">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="F135">
-        <v>0.54</v>
+        <v>0.59</v>
       </c>
       <c r="G135">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H135">
         <v>510</v>
@@ -4143,28 +4143,28 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>2023-10-11 04:24:00</v>
+        <v>2023-10-13 23:26:53</v>
       </c>
       <c r="B136">
-        <v>543.5</v>
+        <v>539.5</v>
       </c>
       <c r="C136">
-        <v>810.03</v>
+        <v>821.47</v>
       </c>
       <c r="D136">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E136">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="F136">
-        <v>0.54</v>
+        <v>0.59</v>
       </c>
       <c r="G136">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H136">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="I136">
         <v>4</v>
@@ -4172,28 +4172,28 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>2023-10-11 09:33:27</v>
+        <v>2023-10-14 04:36:52</v>
       </c>
       <c r="B137">
-        <v>541</v>
+        <v>539.5</v>
       </c>
       <c r="C137">
-        <v>810.03</v>
+        <v>821.47</v>
       </c>
       <c r="D137">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E137">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="F137">
-        <v>0.54</v>
+        <v>0.59</v>
       </c>
       <c r="G137">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H137">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="I137">
         <v>4</v>
@@ -4201,115 +4201,115 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>2023-10-11 14:37:08</v>
+        <v>2023-10-14 09:46:52</v>
       </c>
       <c r="B138">
-        <v>541</v>
+        <v>539.5</v>
       </c>
       <c r="C138">
-        <v>810.03</v>
+        <v>821.47</v>
       </c>
       <c r="D138">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E138">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="F138">
-        <v>0.54</v>
+        <v>0.59</v>
       </c>
       <c r="G138">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H138">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="I138">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>2023-10-11 19:47:08</v>
+        <v>2023-10-14 14:56:54</v>
       </c>
       <c r="B139">
         <v>539.5</v>
       </c>
       <c r="C139">
-        <v>810.03</v>
+        <v>821.47</v>
       </c>
       <c r="D139">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E139">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="F139">
-        <v>0.54</v>
+        <v>0.59</v>
       </c>
       <c r="G139">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H139">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="I139">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>2023-10-12 00:57:08</v>
+        <v>2023-10-14 20:06:54</v>
       </c>
       <c r="B140">
         <v>539.5</v>
       </c>
       <c r="C140">
-        <v>810.03</v>
+        <v>821.47</v>
       </c>
       <c r="D140">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E140">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="F140">
-        <v>0.54</v>
+        <v>0.59</v>
       </c>
       <c r="G140">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H140">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="I140">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>2023-10-12 06:07:32</v>
+        <v>2023-10-15 01:16:53</v>
       </c>
       <c r="B141">
         <v>539.5</v>
       </c>
       <c r="C141">
-        <v>749.77</v>
+        <v>821.47</v>
       </c>
       <c r="D141">
         <v>36</v>
       </c>
       <c r="E141">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="F141">
-        <v>0.54</v>
+        <v>0.59</v>
       </c>
       <c r="G141">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H141">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="I141">
         <v>6</v>
@@ -4317,28 +4317,28 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>2023-10-12 11:17:01</v>
+        <v>2023-10-15 06:26:54</v>
       </c>
       <c r="B142">
         <v>539.5</v>
       </c>
       <c r="C142">
-        <v>749.77</v>
+        <v>764.07</v>
       </c>
       <c r="D142">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E142">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="F142">
-        <v>0.54</v>
+        <v>0.59</v>
       </c>
       <c r="G142">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H142">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="I142">
         <v>6</v>
@@ -4346,28 +4346,28 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>2023-10-12 16:27:01</v>
+        <v>2023-10-15 11:37:50</v>
       </c>
       <c r="B143">
         <v>539.5</v>
       </c>
       <c r="C143">
-        <v>749.77</v>
+        <v>764.07</v>
       </c>
       <c r="D143">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E143">
-        <v>0.68</v>
+        <v>0.9</v>
       </c>
       <c r="F143">
-        <v>0.54</v>
+        <v>0.8</v>
       </c>
       <c r="G143">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H143">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="I143">
         <v>6</v>
@@ -4375,57 +4375,57 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>2023-10-12 21:37:00</v>
+        <v>2023-10-15 16:48:44</v>
       </c>
       <c r="B144">
         <v>539.5</v>
       </c>
       <c r="C144">
-        <v>749.77</v>
+        <v>764.07</v>
       </c>
       <c r="D144">
         <v>36</v>
       </c>
       <c r="E144">
-        <v>0.68</v>
+        <v>0.88</v>
       </c>
       <c r="F144">
-        <v>0.6</v>
+        <v>0.79</v>
       </c>
       <c r="G144">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H144">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="I144">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>2023-10-13 02:47:00</v>
+        <v>2023-10-15 21:57:10</v>
       </c>
       <c r="B145">
         <v>539.5</v>
       </c>
       <c r="C145">
-        <v>821.47</v>
+        <v>764.07</v>
       </c>
       <c r="D145">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E145">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="F145">
-        <v>0.59</v>
+        <v>0.79</v>
       </c>
       <c r="G145">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H145">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="I145">
         <v>5</v>
@@ -4433,173 +4433,173 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>2023-10-13 07:57:00</v>
+        <v>2023-10-16 03:07:16</v>
       </c>
       <c r="B146">
         <v>539.5</v>
       </c>
       <c r="C146">
-        <v>821.47</v>
+        <v>721.3</v>
       </c>
       <c r="D146">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E146">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="F146">
-        <v>0.59</v>
+        <v>0.79</v>
       </c>
       <c r="G146">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H146">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="I146">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>2023-10-13 13:06:58</v>
+        <v>2023-10-16 08:17:16</v>
       </c>
       <c r="B147">
         <v>539.5</v>
       </c>
       <c r="C147">
-        <v>821.47</v>
+        <v>721.3</v>
       </c>
       <c r="D147">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E147">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="F147">
-        <v>0.59</v>
+        <v>0.8</v>
       </c>
       <c r="G147">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H147">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="I147">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>2023-10-13 18:16:53</v>
+        <v>2023-10-16 13:27:16</v>
       </c>
       <c r="B148">
         <v>539.5</v>
       </c>
       <c r="C148">
-        <v>821.47</v>
+        <v>721.3</v>
       </c>
       <c r="D148">
         <v>36</v>
       </c>
       <c r="E148">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="F148">
-        <v>0.59</v>
+        <v>0.79</v>
       </c>
       <c r="G148">
         <v>10</v>
       </c>
       <c r="H148">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="I148">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>2023-10-13 23:26:53</v>
+        <v>2023-10-16 18:37:16</v>
       </c>
       <c r="B149">
         <v>539.5</v>
       </c>
       <c r="C149">
-        <v>821.47</v>
+        <v>721.3</v>
       </c>
       <c r="D149">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E149">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="F149">
-        <v>0.59</v>
+        <v>0.79</v>
       </c>
       <c r="G149">
         <v>10</v>
       </c>
       <c r="H149">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="I149">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>2023-10-14 04:36:52</v>
+        <v>2023-10-16 23:47:44</v>
       </c>
       <c r="B150">
-        <v>539.5</v>
+        <v>539</v>
       </c>
       <c r="C150">
-        <v>821.47</v>
+        <v>721.3</v>
       </c>
       <c r="D150">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E150">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="F150">
-        <v>0.59</v>
+        <v>0.79</v>
       </c>
       <c r="G150">
         <v>10</v>
       </c>
       <c r="H150">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="I150">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>2023-10-14 09:46:52</v>
+        <v>2023-10-17 04:57:56</v>
       </c>
       <c r="B151">
-        <v>539.5</v>
+        <v>539</v>
       </c>
       <c r="C151">
-        <v>821.47</v>
+        <v>680.23</v>
       </c>
       <c r="D151">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E151">
-        <v>0.66</v>
+        <v>0.88</v>
       </c>
       <c r="F151">
-        <v>0.59</v>
+        <v>0.79</v>
       </c>
       <c r="G151">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H151">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="I151">
         <v>5</v>
@@ -4607,86 +4607,86 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>2023-10-14 14:56:54</v>
+        <v>2023-10-17 10:07:30</v>
       </c>
       <c r="B152">
-        <v>539.5</v>
+        <v>539</v>
       </c>
       <c r="C152">
-        <v>821.47</v>
+        <v>680.23</v>
       </c>
       <c r="D152">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E152">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="F152">
-        <v>0.59</v>
+        <v>0.79</v>
       </c>
       <c r="G152">
         <v>11</v>
       </c>
       <c r="H152">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="I152">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>2023-10-14 20:06:54</v>
+        <v>2023-10-17 15:17:29</v>
       </c>
       <c r="B153">
-        <v>539.5</v>
+        <v>539</v>
       </c>
       <c r="C153">
-        <v>821.47</v>
+        <v>680.23</v>
       </c>
       <c r="D153">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E153">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="F153">
-        <v>0.59</v>
+        <v>0.79</v>
       </c>
       <c r="G153">
         <v>11</v>
       </c>
       <c r="H153">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I153">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>2023-10-15 01:16:53</v>
+        <v>2023-10-17 20:27:27</v>
       </c>
       <c r="B154">
-        <v>539.5</v>
+        <v>538.5</v>
       </c>
       <c r="C154">
-        <v>821.47</v>
+        <v>680.23</v>
       </c>
       <c r="D154">
         <v>36</v>
       </c>
       <c r="E154">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="F154">
-        <v>0.59</v>
+        <v>0.79</v>
       </c>
       <c r="G154">
         <v>10</v>
       </c>
       <c r="H154">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="I154">
         <v>6</v>
@@ -4694,22 +4694,22 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>2023-10-15 06:26:54</v>
+        <v>2023-10-18 01:31:14</v>
       </c>
       <c r="B155">
-        <v>539.5</v>
+        <v>538.5</v>
       </c>
       <c r="C155">
-        <v>764.07</v>
+        <v>680.23</v>
       </c>
       <c r="D155">
         <v>36</v>
       </c>
       <c r="E155">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="F155">
-        <v>0.59</v>
+        <v>0.79</v>
       </c>
       <c r="G155">
         <v>9</v>
@@ -4723,28 +4723,28 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>2023-10-15 11:37:50</v>
+        <v>2023-10-18 06:41:12</v>
       </c>
       <c r="B156">
-        <v>539.5</v>
+        <v>538.5</v>
       </c>
       <c r="C156">
-        <v>764.07</v>
+        <v>676</v>
       </c>
       <c r="D156">
         <v>36</v>
       </c>
       <c r="E156">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="F156">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="G156">
         <v>9</v>
       </c>
       <c r="H156">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="I156">
         <v>6</v>
@@ -4752,16 +4752,16 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>2023-10-15 16:48:44</v>
+        <v>2023-10-18 11:51:13</v>
       </c>
       <c r="B157">
-        <v>539.5</v>
+        <v>538.5</v>
       </c>
       <c r="C157">
-        <v>764.07</v>
+        <v>676</v>
       </c>
       <c r="D157">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E157">
         <v>0.88</v>
@@ -4773,24 +4773,24 @@
         <v>9</v>
       </c>
       <c r="H157">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="I157">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>2023-10-15 21:57:10</v>
+        <v>2023-10-18 17:01:12</v>
       </c>
       <c r="B158">
-        <v>539.5</v>
+        <v>538.5</v>
       </c>
       <c r="C158">
-        <v>764.07</v>
+        <v>676</v>
       </c>
       <c r="D158">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E158">
         <v>0.88</v>
@@ -4799,30 +4799,30 @@
         <v>0.79</v>
       </c>
       <c r="G158">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H158">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="I158">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>2023-10-16 03:07:16</v>
+        <v>2023-10-18 22:11:13</v>
       </c>
       <c r="B159">
-        <v>539.5</v>
+        <v>538.5</v>
       </c>
       <c r="C159">
-        <v>721.3</v>
+        <v>676</v>
       </c>
       <c r="D159">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E159">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="F159">
         <v>0.79</v>
@@ -4831,39 +4831,68 @@
         <v>10</v>
       </c>
       <c r="H159">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="I159">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>2023-10-16 08:17:16</v>
+        <v>2023-10-19 03:21:12</v>
       </c>
       <c r="B160">
+        <v>538.5</v>
+      </c>
+      <c r="C160">
+        <v>676</v>
+      </c>
+      <c r="D160">
+        <v>32</v>
+      </c>
+      <c r="E160">
+        <v>0.87</v>
+      </c>
+      <c r="F160">
+        <v>0.79</v>
+      </c>
+      <c r="G160">
+        <v>10</v>
+      </c>
+      <c r="H160">
+        <v>510</v>
+      </c>
+      <c r="I160">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>2023-10-19 08:31:12</v>
+      </c>
+      <c r="B161">
         <v>539.5</v>
       </c>
-      <c r="C160">
-        <v>721.3</v>
-      </c>
-      <c r="D160">
-        <v>36</v>
-      </c>
-      <c r="E160">
-        <v>0.9</v>
-      </c>
-      <c r="F160">
-        <v>0.8</v>
-      </c>
-      <c r="G160">
-        <v>9</v>
-      </c>
-      <c r="H160">
-        <v>506</v>
-      </c>
-      <c r="I160">
-        <v>6</v>
+      <c r="C161">
+        <v>676</v>
+      </c>
+      <c r="D161">
+        <v>32</v>
+      </c>
+      <c r="E161">
+        <v>0.87</v>
+      </c>
+      <c r="F161">
+        <v>0.79</v>
+      </c>
+      <c r="G161">
+        <v>10</v>
+      </c>
+      <c r="H161">
+        <v>510</v>
+      </c>
+      <c r="I161">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -4875,7 +4904,7 @@
     <mergeCell ref="A6:H6"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I160"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I161"/>
   </ignoredErrors>
 </worksheet>
 </file>